--- a/data/trans_orig/P21D2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>85666</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63838</v>
+        <v>63651</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>109946</v>
+        <v>107667</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4064218082866358</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3028623862632293</v>
+        <v>0.3019771248833938</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5216112187272962</v>
+        <v>0.5107995997129985</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -762,19 +762,19 @@
         <v>72824</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55944</v>
+        <v>55585</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>90486</v>
+        <v>91193</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.44681217742242</v>
+        <v>0.4468121774224199</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3432452278238255</v>
+        <v>0.3410429905348312</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.555177542735046</v>
+        <v>0.5595189387157612</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>81</v>
@@ -783,19 +783,19 @@
         <v>158490</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>132200</v>
+        <v>130220</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>188863</v>
+        <v>185262</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4240344780671593</v>
+        <v>0.4240344780671594</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3536969831020305</v>
+        <v>0.3484009779282433</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5052968132235977</v>
+        <v>0.4956643204349329</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>116428</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>93285</v>
+        <v>93563</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>139417</v>
+        <v>137809</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5523653267322907</v>
+        <v>0.5523653267322906</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4425668275079044</v>
+        <v>0.4438877143668982</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6614322186754972</v>
+        <v>0.6538022598372843</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>46</v>
@@ -833,19 +833,19 @@
         <v>79823</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>61944</v>
+        <v>62812</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>96193</v>
+        <v>97366</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4897551938230438</v>
+        <v>0.4897551938230437</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3800593906682121</v>
+        <v>0.385385042703838</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5901937841077268</v>
+        <v>0.5973899795073689</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>89</v>
@@ -854,19 +854,19 @@
         <v>196251</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>166210</v>
+        <v>167717</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>223840</v>
+        <v>224806</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5250634817766749</v>
+        <v>0.5250634817766751</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4446894696556616</v>
+        <v>0.4487221903030555</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5988770025434434</v>
+        <v>0.6014613686250734</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20989</v>
+        <v>20831</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03022884687541685</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09957640691088875</v>
+        <v>0.09882716719062939</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18026</v>
+        <v>14994</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02990796519492374</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1106009238948966</v>
+        <v>0.09199903655208513</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -925,19 +925,19 @@
         <v>11246</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2935</v>
+        <v>3405</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>28195</v>
+        <v>25697</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.03008892284901973</v>
+        <v>0.03008892284901974</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007853149652308506</v>
+        <v>0.009111092765167817</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07543598115637239</v>
+        <v>0.06875173187015211</v>
       </c>
     </row>
     <row r="7">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12111</v>
+        <v>11721</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01098401810565681</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05745848766756502</v>
+        <v>0.05560577403019575</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -975,19 +975,19 @@
         <v>5464</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1194</v>
+        <v>1202</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15158</v>
+        <v>15664</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03352466355961276</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00732558755678387</v>
+        <v>0.007377669754915024</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0930054824887187</v>
+        <v>0.09610702946935887</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -996,19 +996,19 @@
         <v>7779</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2316</v>
+        <v>2344</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18271</v>
+        <v>19447</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02081311730714594</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006196737464377425</v>
+        <v>0.006270569938024717</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04888287203228741</v>
+        <v>0.05202995994322169</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>108823</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>90732</v>
+        <v>89028</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>127677</v>
+        <v>129139</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4797905070684367</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.400030335783598</v>
+        <v>0.3925158086777202</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5629177403107021</v>
+        <v>0.569362309374057</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>84</v>
@@ -1121,19 +1121,19 @@
         <v>89201</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>74633</v>
+        <v>73785</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>104991</v>
+        <v>105600</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.3586981019931845</v>
+        <v>0.3586981019931844</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3001168088487702</v>
+        <v>0.2967079166815706</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.422194953549697</v>
+        <v>0.4246404545555965</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>155</v>
@@ -1142,19 +1142,19 @@
         <v>198023</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>174705</v>
+        <v>174912</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>223732</v>
+        <v>224752</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4164599214598763</v>
+        <v>0.4164599214598764</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3674184022797828</v>
+        <v>0.3678548563430742</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4705272864951274</v>
+        <v>0.4726729472367899</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>114235</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>95465</v>
+        <v>94033</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>132790</v>
+        <v>133252</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5036527231702032</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4208966942486837</v>
+        <v>0.4145834989304651</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5854623608461622</v>
+        <v>0.587498992844972</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>137</v>
@@ -1192,19 +1192,19 @@
         <v>153849</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>138599</v>
+        <v>137803</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>168748</v>
+        <v>170172</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6186631424997536</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5573402412722209</v>
+        <v>0.554138769520173</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.678573749497193</v>
+        <v>0.6843001247207154</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>208</v>
@@ -1213,19 +1213,19 @@
         <v>268084</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>242886</v>
+        <v>241199</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>292621</v>
+        <v>291760</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5638024675137904</v>
+        <v>0.5638024675137902</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5108089082405414</v>
+        <v>0.5072620917970058</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6154069376748051</v>
+        <v>0.6135958356915909</v>
       </c>
     </row>
     <row r="11">
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8161</v>
+        <v>6893</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005994004640115465</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03598065511386273</v>
+        <v>0.0303919173716868</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6904</v>
+        <v>7704</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.002859176954076546</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01451897541180356</v>
+        <v>0.01620125214300828</v>
       </c>
     </row>
     <row r="12">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8344</v>
+        <v>7783</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01056276512124476</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0367877394089601</v>
+        <v>0.03431593610193619</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1326,19 +1326,19 @@
         <v>5630</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2549</v>
+        <v>1926</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11786</v>
+        <v>11292</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02263875550706196</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01025062643083015</v>
+        <v>0.007743779459237298</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04739604951451598</v>
+        <v>0.04540856788596241</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -1347,19 +1347,19 @@
         <v>8026</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3785</v>
+        <v>3242</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15166</v>
+        <v>15364</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01687843407225683</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007960598992551854</v>
+        <v>0.006818172838418678</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03189579411317244</v>
+        <v>0.03231162061237161</v>
       </c>
     </row>
     <row r="13">
@@ -1451,19 +1451,19 @@
         <v>108591</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>91569</v>
+        <v>93680</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>124782</v>
+        <v>127047</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4300342451262226</v>
+        <v>0.4300342451262225</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3626248471227057</v>
+        <v>0.3709836096062564</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4941504087017909</v>
+        <v>0.5031224033512247</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>135</v>
@@ -1472,19 +1472,19 @@
         <v>99847</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>86062</v>
+        <v>85376</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>114203</v>
+        <v>115184</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3365987570664272</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2901281952664517</v>
+        <v>0.2878133918854738</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3849944604971191</v>
+        <v>0.3883004947150133</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>232</v>
@@ -1493,19 +1493,19 @@
         <v>208438</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>186117</v>
+        <v>187237</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>230472</v>
+        <v>230628</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3795632809524145</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3389173018218207</v>
+        <v>0.3409566827872211</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4196871223517284</v>
+        <v>0.419970294118102</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>136186</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>120325</v>
+        <v>118462</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>153162</v>
+        <v>151672</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.5393110237411352</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4764990970291282</v>
+        <v>0.4691222058239122</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6065400715718459</v>
+        <v>0.6006379050086149</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>247</v>
@@ -1543,19 +1543,19 @@
         <v>187127</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>172646</v>
+        <v>172432</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>200824</v>
+        <v>201769</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.630831341584653</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5820165016504351</v>
+        <v>0.5812941140454893</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.6770059426793975</v>
+        <v>0.6801943480644471</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>364</v>
@@ -1564,19 +1564,19 @@
         <v>323312</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>301633</v>
+        <v>301636</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>346241</v>
+        <v>344866</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.5887474721289216</v>
+        <v>0.5887474721289215</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5492691274650948</v>
+        <v>0.549275624051464</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6304997111513848</v>
+        <v>0.6279963539304262</v>
       </c>
     </row>
     <row r="16">
@@ -1596,16 +1596,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4269</v>
+        <v>5160</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.003611840714860101</v>
+        <v>0.0036118407148601</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01690499828030603</v>
+        <v>0.02043492407052437</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1614,19 +1614,19 @@
         <v>2814</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7121</v>
+        <v>7344</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009486529809818688</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002596262812542298</v>
+        <v>0.002659368043367391</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02400620265956805</v>
+        <v>0.02475821731959794</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1635,19 +1635,19 @@
         <v>3726</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1284</v>
+        <v>1298</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8397</v>
+        <v>8623</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006785166278848862</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002338724330873429</v>
+        <v>0.002363669658381703</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01529144133726777</v>
+        <v>0.01570151564946492</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>6829</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2823</v>
+        <v>2856</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13228</v>
+        <v>13214</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.02704289041778231</v>
+        <v>0.0270428904177823</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01117878965823318</v>
+        <v>0.01131098303670857</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05238384667445758</v>
+        <v>0.05232815221530495</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -1688,16 +1688,16 @@
         <v>3289</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13556</v>
+        <v>12096</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0230833715391009</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01108778618869651</v>
+        <v>0.0110883132258969</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0456978399633937</v>
+        <v>0.04077667333714506</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -1706,19 +1706,19 @@
         <v>13676</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8369</v>
+        <v>7765</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22062</v>
+        <v>21416</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.02490408063981491</v>
+        <v>0.02490408063981492</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01523958809332889</v>
+        <v>0.01414029257368097</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04017509655796013</v>
+        <v>0.0389990973620617</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>121681</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>105278</v>
+        <v>104758</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>139056</v>
+        <v>140034</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.383769346569418</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3320351843543412</v>
+        <v>0.3303975412306682</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4385694877904358</v>
+        <v>0.4416523278132443</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>173</v>
@@ -1831,19 +1831,19 @@
         <v>114749</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>100839</v>
+        <v>101526</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>128234</v>
+        <v>130638</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.331828516593403</v>
+        <v>0.3318285165934029</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2916041212786878</v>
+        <v>0.2935919887445881</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3708239671285612</v>
+        <v>0.3777765461147488</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>292</v>
@@ -1852,19 +1852,19 @@
         <v>236430</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>212087</v>
+        <v>213331</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>260864</v>
+        <v>257628</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3566729406699706</v>
+        <v>0.3566729406699705</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3199503520558397</v>
+        <v>0.3218266757935516</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3935349418962541</v>
+        <v>0.3886526741068277</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>180337</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>162803</v>
+        <v>161743</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>198220</v>
+        <v>198404</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5687644119923885</v>
+        <v>0.5687644119923886</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5134654714155855</v>
+        <v>0.5101205395553402</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6251665946762995</v>
+        <v>0.6257444421673282</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>340</v>
@@ -1902,19 +1902,19 @@
         <v>221618</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>208571</v>
+        <v>205777</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>236329</v>
+        <v>235841</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6408714772382146</v>
+        <v>0.6408714772382145</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6031400148631314</v>
+        <v>0.5950622083176554</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6834116734893307</v>
+        <v>0.6820009932464706</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>502</v>
@@ -1923,19 +1923,19 @@
         <v>401955</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>378061</v>
+        <v>379994</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>426412</v>
+        <v>423549</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6063811060078882</v>
+        <v>0.6063811060078881</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5703359948595165</v>
+        <v>0.5732511880795885</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6432759187466567</v>
+        <v>0.6389575869790631</v>
       </c>
     </row>
     <row r="21">
@@ -1952,19 +1952,19 @@
         <v>4381</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1320</v>
+        <v>1326</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11099</v>
+        <v>11279</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01381834384256226</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004163817491849163</v>
+        <v>0.004182549782379508</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03500428639703899</v>
+        <v>0.03557262223399411</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -1973,19 +1973,19 @@
         <v>3000</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1146</v>
+        <v>866</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6672</v>
+        <v>7213</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.008675858988028008</v>
+        <v>0.008675858988028006</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.003314345681729994</v>
+        <v>0.002503498085939422</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01929331932434175</v>
+        <v>0.02085711476683413</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -1994,19 +1994,19 @@
         <v>7382</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3404</v>
+        <v>3490</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>14101</v>
+        <v>13868</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01113562088617966</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.00513555648153022</v>
+        <v>0.005264560350904557</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0212731527311668</v>
+        <v>0.02092056853724866</v>
       </c>
     </row>
     <row r="22">
@@ -2023,19 +2023,19 @@
         <v>10669</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5860</v>
+        <v>5604</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18671</v>
+        <v>18327</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.0336478975956312</v>
+        <v>0.03364789759563121</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01848246092330517</v>
+        <v>0.01767490701879728</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05888677545331315</v>
+        <v>0.05780303249713201</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2044,19 +2044,19 @@
         <v>6440</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3300</v>
+        <v>3155</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11823</v>
+        <v>11585</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.01862414718035455</v>
+        <v>0.01862414718035454</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009543164368511556</v>
+        <v>0.00912443967243729</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03418861509139623</v>
+        <v>0.03350004431575286</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -2065,19 +2065,19 @@
         <v>17109</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10927</v>
+        <v>11119</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25990</v>
+        <v>26025</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.02581033243596179</v>
+        <v>0.02581033243596178</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01648435999736934</v>
+        <v>0.01677452232203558</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03920815762750252</v>
+        <v>0.03926111054676885</v>
       </c>
     </row>
     <row r="23">
@@ -2169,19 +2169,19 @@
         <v>104867</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>87086</v>
+        <v>90427</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>119820</v>
+        <v>120028</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4072820934015252</v>
+        <v>0.407282093401525</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3382249151219948</v>
+        <v>0.3511972225037266</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4653562841636453</v>
+        <v>0.4661644202144477</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>143</v>
@@ -2190,19 +2190,19 @@
         <v>90118</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>79385</v>
+        <v>78761</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>102894</v>
+        <v>102319</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3545511254488043</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3123211494021602</v>
+        <v>0.3098682764712444</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.404815292741143</v>
+        <v>0.4025521058548666</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>259</v>
@@ -2211,19 +2211,19 @@
         <v>194986</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>175424</v>
+        <v>173673</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>213752</v>
+        <v>211941</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3810869164585048</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3428551807498817</v>
+        <v>0.3394328837128381</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4177651395149205</v>
+        <v>0.4142248115249213</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>142603</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>126761</v>
+        <v>127501</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>159042</v>
+        <v>157883</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.5538370887151296</v>
+        <v>0.5538370887151295</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4923127364526939</v>
+        <v>0.4951868134622897</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6176849469651319</v>
+        <v>0.6131843978055462</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>242</v>
@@ -2261,19 +2261,19 @@
         <v>148550</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>136133</v>
+        <v>136388</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>160289</v>
+        <v>161525</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5844359972204386</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5355842551465783</v>
+        <v>0.5365876936137339</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6306235456526436</v>
+        <v>0.6354862734611106</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>392</v>
@@ -2282,19 +2282,19 @@
         <v>291152</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>272191</v>
+        <v>273226</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>310832</v>
+        <v>313197</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5690377166133037</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5319793189552031</v>
+        <v>0.5340028020771319</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6075011673584368</v>
+        <v>0.6121231524764142</v>
       </c>
     </row>
     <row r="26">
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2697</v>
+        <v>3036</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.002055840944054397</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01047298677876709</v>
+        <v>0.01179211967008564</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -2332,19 +2332,19 @@
         <v>3701</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1648</v>
+        <v>1379</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8048</v>
+        <v>7827</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01456145899569717</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006483364225819719</v>
+        <v>0.005427000814595766</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03166207140344919</v>
+        <v>0.03079428098080753</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -2353,19 +2353,19 @@
         <v>4231</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1732</v>
+        <v>1802</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8691</v>
+        <v>8800</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.008268260142168292</v>
+        <v>0.008268260142168291</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00338528142976393</v>
+        <v>0.003521932582050314</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01698517181235108</v>
+        <v>0.01719924496305025</v>
       </c>
     </row>
     <row r="27">
@@ -2382,19 +2382,19 @@
         <v>9482</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4834</v>
+        <v>5539</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>16958</v>
+        <v>17945</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.03682497693929099</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01877235928037606</v>
+        <v>0.02151353559242508</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.065861979412524</v>
+        <v>0.06969475257008965</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>20</v>
@@ -2403,19 +2403,19 @@
         <v>11807</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>7637</v>
+        <v>7291</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>18071</v>
+        <v>17459</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.04645141833505999</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03004782600952055</v>
+        <v>0.02868431984822613</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.07109523045429615</v>
+        <v>0.06868776696416874</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>31</v>
@@ -2424,19 +2424,19 @@
         <v>21289</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>14590</v>
+        <v>14017</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>30412</v>
+        <v>29050</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.04160710678602317</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02851520199816478</v>
+        <v>0.02739604031296312</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.05943846246386963</v>
+        <v>0.0567762422472689</v>
       </c>
     </row>
     <row r="28">
@@ -2528,19 +2528,19 @@
         <v>72025</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>61125</v>
+        <v>61730</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>81604</v>
+        <v>83803</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4138125878102111</v>
+        <v>0.413812587810211</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3511878445105752</v>
+        <v>0.3546605594512576</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4688456240024265</v>
+        <v>0.4814776384060413</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>156</v>
@@ -2549,19 +2549,19 @@
         <v>82259</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>71850</v>
+        <v>72027</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>92526</v>
+        <v>92816</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.4121765055017095</v>
+        <v>0.4121765055017093</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3600171148810196</v>
+        <v>0.3609072252179839</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4636185608322284</v>
+        <v>0.4650718748826316</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>261</v>
@@ -2570,19 +2570,19 @@
         <v>154285</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>139518</v>
+        <v>138245</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>169831</v>
+        <v>167661</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.4129386722870885</v>
+        <v>0.4129386722870884</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3734165046142268</v>
+        <v>0.3700100100139219</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4545470466060304</v>
+        <v>0.4487395095979579</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>97602</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>87869</v>
+        <v>86272</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>108817</v>
+        <v>108637</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5607597961504025</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5048419056959859</v>
+        <v>0.4956653772775462</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6251931018504304</v>
+        <v>0.6241629139826885</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>209</v>
@@ -2620,19 +2620,19 @@
         <v>111828</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>101029</v>
+        <v>101573</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>122450</v>
+        <v>122358</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5603379297724808</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5062259527709564</v>
+        <v>0.5089539506291416</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6135585544369421</v>
+        <v>0.6130966592627605</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>341</v>
@@ -2641,19 +2641,19 @@
         <v>209430</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>192780</v>
+        <v>195767</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>223926</v>
+        <v>225315</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.5605344556681826</v>
+        <v>0.5605344556681825</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5159697280994392</v>
+        <v>0.5239660317576128</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5993309321345128</v>
+        <v>0.6030487417119583</v>
       </c>
     </row>
     <row r="31">
@@ -2670,19 +2670,19 @@
         <v>2575</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7864</v>
+        <v>7509</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.01479230255905876</v>
+        <v>0.01479230255905875</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.004133680996118899</v>
+        <v>0.004150173683057995</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04517930887300455</v>
+        <v>0.04314258393521487</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -2691,19 +2691,19 @@
         <v>3178</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1360</v>
+        <v>1148</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>7740</v>
+        <v>6805</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01592188090577263</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.006814649432789361</v>
+        <v>0.005750467101415696</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03878433784575321</v>
+        <v>0.0340974003725747</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>9</v>
@@ -2712,19 +2712,19 @@
         <v>5752</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2730</v>
+        <v>2620</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>10830</v>
+        <v>11110</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01539566832290012</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.007306573670552599</v>
+        <v>0.0070110886120318</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02898601969350562</v>
+        <v>0.02973445110443347</v>
       </c>
     </row>
     <row r="32">
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6490</v>
+        <v>6453</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01063531348032763</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03728949184402248</v>
+        <v>0.03707428343538891</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -2762,19 +2762,19 @@
         <v>2308</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5412</v>
+        <v>5739</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0115636838200372</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003388461383783065</v>
+        <v>0.003450455673820221</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02711961698806385</v>
+        <v>0.02875663749482085</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -2783,19 +2783,19 @@
         <v>4159</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1659</v>
+        <v>1836</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8708</v>
+        <v>9127</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.01113120372182889</v>
+        <v>0.01113120372182888</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004441604422051462</v>
+        <v>0.004913367117936963</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02330620429042123</v>
+        <v>0.02442872288554593</v>
       </c>
     </row>
     <row r="33">
@@ -2887,19 +2887,19 @@
         <v>74042</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>64380</v>
+        <v>64209</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>83863</v>
+        <v>83138</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5714839265982078</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4969075701964337</v>
+        <v>0.4955890881066358</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6472851615001127</v>
+        <v>0.6416926918136121</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>208</v>
@@ -2908,19 +2908,19 @@
         <v>110284</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>99783</v>
+        <v>99138</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>119941</v>
+        <v>119456</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.590527131658121</v>
+        <v>0.5905271316581209</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.534297128443453</v>
+        <v>0.5308440978729818</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6422363597912749</v>
+        <v>0.6396381282257958</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>323</v>
@@ -2929,19 +2929,19 @@
         <v>184326</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>170935</v>
+        <v>170051</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>197206</v>
+        <v>199022</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.5827271702590906</v>
+        <v>0.5827271702590905</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5403920879046555</v>
+        <v>0.5375996557697541</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6234460186722732</v>
+        <v>0.6291874632891781</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>55519</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>45698</v>
+        <v>46423</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>65181</v>
+        <v>65352</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.4285160734017923</v>
+        <v>0.4285160734017922</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3527148384998874</v>
+        <v>0.358307308186388</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5030924298035664</v>
+        <v>0.5044109118933643</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>129</v>
@@ -2979,19 +2979,19 @@
         <v>72405</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>62925</v>
+        <v>62917</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>82667</v>
+        <v>83503</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3876985913554069</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3369362458151932</v>
+        <v>0.3368966229652316</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4426506194571513</v>
+        <v>0.4471283119884314</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>206</v>
@@ -3000,19 +3000,19 @@
         <v>127924</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>115378</v>
+        <v>113778</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>141854</v>
+        <v>142591</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.4044171417971923</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3647543931670446</v>
+        <v>0.3596964874584123</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4484572177695797</v>
+        <v>0.4507876210275761</v>
       </c>
     </row>
     <row r="36">
@@ -3042,19 +3042,19 @@
         <v>2008</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>596</v>
+        <v>411</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4940</v>
+        <v>5239</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01075048316009414</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.00319062815053976</v>
+        <v>0.002199036161608558</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02645279348569739</v>
+        <v>0.02805289545985624</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4</v>
@@ -3063,19 +3063,19 @@
         <v>2008</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>556</v>
+        <v>407</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5146</v>
+        <v>4909</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.006347161691578554</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.00175755804449343</v>
+        <v>0.001288119686938604</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01626718994434469</v>
+        <v>0.01551787163104882</v>
       </c>
     </row>
     <row r="37">
@@ -3108,16 +3108,16 @@
         <v>567</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>4874</v>
+        <v>5152</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01102379382637789</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.003037562350050503</v>
+        <v>0.003036470064768437</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02609889278394948</v>
+        <v>0.02758677438284854</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4</v>
@@ -3126,19 +3126,19 @@
         <v>2059</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4850</v>
+        <v>5269</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.006508526252138531</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.001808955158976816</v>
+        <v>0.001782366924550275</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01533267475409075</v>
+        <v>0.01665786604562148</v>
       </c>
     </row>
     <row r="38">
@@ -3230,19 +3230,19 @@
         <v>675695</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>633401</v>
+        <v>631417</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>724627</v>
+        <v>719003</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.4308528760788562</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4038843194404468</v>
+        <v>0.402618792845761</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4620539146140075</v>
+        <v>0.458467733741571</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>941</v>
@@ -3251,19 +3251,19 @@
         <v>659282</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>623397</v>
+        <v>622325</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>698527</v>
+        <v>691822</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.3890461235858537</v>
+        <v>0.3890461235858536</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.3678702993686416</v>
+        <v>0.3672374696449187</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.4122047429441658</v>
+        <v>0.4082484249624476</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1603</v>
@@ -3272,19 +3272,19 @@
         <v>1334977</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1282451</v>
+        <v>1275935</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1392804</v>
+        <v>1390314</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.409140129790833</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.393042073718016</v>
+        <v>0.3910449772231593</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.4268628713353897</v>
+        <v>0.4260995796026884</v>
       </c>
     </row>
     <row r="40">
@@ -3301,19 +3301,19 @@
         <v>842909</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>794287</v>
+        <v>796792</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>886636</v>
+        <v>886187</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.5374754414421726</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5064722963140155</v>
+        <v>0.5080696437638765</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5653577992583348</v>
+        <v>0.5650712553484308</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1350</v>
@@ -3322,19 +3322,19 @@
         <v>975199</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>937654</v>
+        <v>943898</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1010457</v>
+        <v>1014925</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5754707454350823</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.553314955093938</v>
+        <v>0.5569995453793234</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5962765181653179</v>
+        <v>0.5989130598284622</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2102</v>
@@ -3343,19 +3343,19 @@
         <v>1818108</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1760860</v>
+        <v>1761065</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1874406</v>
+        <v>1877167</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5572086746291426</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5396634489093338</v>
+        <v>0.5397263126730812</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5744627637649357</v>
+        <v>0.5753089712029006</v>
       </c>
     </row>
     <row r="41">
@@ -3372,19 +3372,19 @@
         <v>16129</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>8167</v>
+        <v>8285</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>30514</v>
+        <v>31648</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01028428504696819</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.005207571219003206</v>
+        <v>0.005282985530811943</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01945732675308133</v>
+        <v>0.02018014496755137</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>27</v>
@@ -3393,19 +3393,19 @@
         <v>19575</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>12335</v>
+        <v>12950</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>32268</v>
+        <v>31403</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01155144822233513</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.007278732520223042</v>
+        <v>0.007641948891996655</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01904136070603986</v>
+        <v>0.01853094985415471</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>39</v>
@@ -3414,19 +3414,19 @@
         <v>35704</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>23844</v>
+        <v>24170</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>52606</v>
+        <v>53010</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01094239865043149</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.00730772538854782</v>
+        <v>0.00740770778416193</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01612252200699312</v>
+        <v>0.01624646436220765</v>
       </c>
     </row>
     <row r="42">
@@ -3443,19 +3443,19 @@
         <v>33541</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>22911</v>
+        <v>23925</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>47986</v>
+        <v>47379</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02138739743200314</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01460916990036885</v>
+        <v>0.01525562204858178</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.03059811407277426</v>
+        <v>0.03021109082032805</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>56</v>
@@ -3464,19 +3464,19 @@
         <v>40555</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>30554</v>
+        <v>30516</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>53748</v>
+        <v>54238</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02393168275672912</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01802994238425104</v>
+        <v>0.01800778550526659</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.0317171778097487</v>
+        <v>0.03200643812850464</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>90</v>
@@ -3485,19 +3485,19 @@
         <v>74096</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>59943</v>
+        <v>58066</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>92723</v>
+        <v>92806</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.02270879692959297</v>
+        <v>0.02270879692959296</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01837119975296615</v>
+        <v>0.01779602793129704</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02841750501098507</v>
+        <v>0.02844298010347283</v>
       </c>
     </row>
     <row r="43">
